--- a/en/application_framework/application_framework/web_service/rest/images/images.xlsx
+++ b/en/application_framework/application_framework/web_service/rest/images/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie306988\work\nablarch\nablarch-document\ja\application_framework\application_framework\web_service\rest\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236178C5-269C-4ABE-93D5-46BDB75AE6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="28800" windowHeight="18195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="責務配置" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,6 +75,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -90,7 +99,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -153,7 +168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvPr id="27" name="角丸四角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -213,7 +234,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvPr id="30" name="角丸四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -273,7 +300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvPr id="32" name="角丸四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -342,7 +375,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -402,7 +441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="右矢印 34"/>
+        <xdr:cNvPr id="35" name="右矢印 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -454,7 +499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="右矢印 35"/>
+        <xdr:cNvPr id="36" name="右矢印 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -506,7 +557,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線コネクタ 4"/>
+        <xdr:cNvPr id="38" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="0"/>
           <a:endCxn id="32" idx="1"/>
@@ -553,7 +610,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -616,7 +679,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -679,7 +748,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="0"/>
           <a:endCxn id="32" idx="2"/>
@@ -729,7 +804,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="角丸四角形 41"/>
+        <xdr:cNvPr id="42" name="角丸四角形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -789,7 +870,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -836,7 +923,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -899,7 +992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="フローチャート : 磁気ディスク 50"/>
+        <xdr:cNvPr id="51" name="フローチャート : 磁気ディスク 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -959,7 +1058,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="2"/>
           <a:endCxn id="51" idx="1"/>
@@ -1006,7 +1111,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1069,7 +1180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1132,7 +1249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1167,7 +1290,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>form class</a:t>
+            <a:t>DTO</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1201,7 +1324,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="2"/>
           <a:endCxn id="20" idx="0"/>
@@ -1251,7 +1380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1319,7 +1454,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1360,7 +1501,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Form</a:t>
+            <a:t>DTO</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
             <a:solidFill>
@@ -1388,7 +1529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1448,7 +1595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1529,7 +1682,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1578,7 +1737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1641,7 +1806,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1722,7 +1893,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -1772,7 +1949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1856,7 +2039,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="8" idx="1"/>
@@ -1906,7 +2095,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1990,7 +2185,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2068,7 +2269,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="2"/>
           <a:endCxn id="10" idx="0"/>
@@ -2119,7 +2326,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -2170,7 +2383,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2217,7 +2436,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -2266,7 +2491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2329,7 +2560,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2392,7 +2629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2455,7 +2698,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2553,7 +2802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2616,7 +2871,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvPr id="31" name="角丸四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2697,7 +2958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvPr id="34" name="角丸四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2755,7 +3022,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2936,7 +3209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2978,7 +3251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3011,9 +3284,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3046,6 +3336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3221,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -3236,7 +3543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
